--- a/data/trans_dic/P1804_2016_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1804_2016_2023-Dificultad-trans_dic.xlsx
@@ -612,13 +612,13 @@
         <v>0.07200287244749334</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.0617394498123576</v>
+        <v>0.06173944981235759</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.09462384032714705</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1001399107438219</v>
+        <v>0.100139910743822</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.0839366071328615</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05813212096219923</v>
+        <v>0.05720355964738124</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04099920136420219</v>
+        <v>0.04101143352617397</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07847578788750019</v>
+        <v>0.07809858964370964</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07957237261781933</v>
+        <v>0.07828345217962772</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07244586884983721</v>
+        <v>0.07287522729964656</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06722843808918681</v>
+        <v>0.06832195214641357</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08889863204511694</v>
+        <v>0.08659566724902309</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08976353078312757</v>
+        <v>0.08927897035635596</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1139252452468302</v>
+        <v>0.1109920734334907</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.124629137428873</v>
+        <v>0.1252539672447585</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09687642227993835</v>
+        <v>0.09538205548612791</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09990900778601366</v>
+        <v>0.1012125926814581</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
         <v>0.08077793641391467</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.05590470423348074</v>
+        <v>0.05590470423348073</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04239677608902871</v>
+        <v>0.04298989525726587</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02255851490177517</v>
+        <v>0.02254273650975785</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08350771462086153</v>
+        <v>0.08319832419021589</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06219542624237504</v>
+        <v>0.06131265371795716</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06800979443456395</v>
+        <v>0.06867485644280577</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04683871118284648</v>
+        <v>0.04646172729634931</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07300215519994821</v>
+        <v>0.07395213236799282</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04794569271705608</v>
+        <v>0.04803823354023454</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1239562564726</v>
+        <v>0.1263169982482764</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08981689487062033</v>
+        <v>0.08993907227392595</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09351545584615482</v>
+        <v>0.09388279060471713</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06665174622003207</v>
+        <v>0.06598106615053766</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.07528259770803854</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.0756823723427376</v>
+        <v>0.07568237234273759</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03900322301341056</v>
+        <v>0.03798865726810635</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05505925388809404</v>
+        <v>0.05502645695572631</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07796111498379733</v>
+        <v>0.07988669449662376</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06429208245007362</v>
+        <v>0.0648623513431961</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06298986894567148</v>
+        <v>0.0617659083531195</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06449684293105924</v>
+        <v>0.06309354830245441</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06937303902962831</v>
+        <v>0.07075304807368345</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09787560163340739</v>
+        <v>0.09352419985279999</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1257648592374246</v>
+        <v>0.1232035288694224</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09678135434845016</v>
+        <v>0.09344450460647022</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09044819965617937</v>
+        <v>0.08966344452499589</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08892434473719525</v>
+        <v>0.08947105468957847</v>
       </c>
     </row>
     <row r="13">
@@ -870,7 +870,7 @@
         <v>0.08981853457322239</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.0869429376705281</v>
+        <v>0.08694293767052809</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05237708860427844</v>
+        <v>0.05200238327236497</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06280444159784786</v>
+        <v>0.06121514198993176</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08224463618615763</v>
+        <v>0.08033364713290524</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07888545195630438</v>
+        <v>0.07853180229441899</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07168266808316781</v>
+        <v>0.0727634658483627</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07495872759355522</v>
+        <v>0.07496083147920922</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1009626799759618</v>
+        <v>0.09827140772727151</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.100305856306802</v>
+        <v>0.1029969756768261</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.141770975080205</v>
+        <v>0.14149680207218</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1147427903346003</v>
+        <v>0.1143690130629862</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.10885421494232</v>
+        <v>0.1107000863964136</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1006350996476777</v>
+        <v>0.1014975554964188</v>
       </c>
     </row>
     <row r="16">
@@ -946,13 +946,13 @@
         <v>0.09951963329162021</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08524724961650447</v>
+        <v>0.08524724961650448</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.08190723682555766</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.07406639032858202</v>
+        <v>0.074066390328582</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05587795296153453</v>
+        <v>0.05508266652383654</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05218122262690359</v>
+        <v>0.05431732776857216</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08900211443177085</v>
+        <v>0.08874458174769619</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07767467950528686</v>
+        <v>0.07750304876000756</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07559102681040701</v>
+        <v>0.07516954958459071</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06755371542616301</v>
+        <v>0.06795918804606775</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07226128903351842</v>
+        <v>0.07274347938990765</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07104034911874166</v>
+        <v>0.07202361022101611</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1106083170584934</v>
+        <v>0.1105152554553042</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09475368381125883</v>
+        <v>0.09488158225027628</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08849915958750189</v>
+        <v>0.08881610387563474</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08082311045953687</v>
+        <v>0.08061520674443305</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>65573</v>
+        <v>64525</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>20448</v>
+        <v>20454</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>98845</v>
+        <v>98370</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>49547</v>
+        <v>48744</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>172969</v>
+        <v>173994</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>75390</v>
+        <v>76616</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>100277</v>
+        <v>97680</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>44769</v>
+        <v>44527</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>143496</v>
+        <v>139801</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>77602</v>
+        <v>77991</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>231298</v>
+        <v>227730</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>112038</v>
+        <v>113500</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>38531</v>
+        <v>39070</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>21659</v>
+        <v>21644</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>84048</v>
+        <v>83737</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>69401</v>
+        <v>68416</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>130259</v>
+        <v>131533</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>97237</v>
+        <v>96454</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>66346</v>
+        <v>67210</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>46034</v>
+        <v>46123</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>124759</v>
+        <v>127135</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>100222</v>
+        <v>100358</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>179110</v>
+        <v>179814</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>138368</v>
+        <v>136976</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>32129</v>
+        <v>31293</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>57618</v>
+        <v>57584</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>60113</v>
+        <v>61597</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>67212</v>
+        <v>67808</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>100457</v>
+        <v>98505</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>134921</v>
+        <v>131985</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>57147</v>
+        <v>58283</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>102425</v>
+        <v>97871</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>96972</v>
+        <v>94997</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>101177</v>
+        <v>97689</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>144248</v>
+        <v>142997</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>186021</v>
+        <v>187164</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>26540</v>
+        <v>26350</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>61293</v>
+        <v>59742</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>40275</v>
+        <v>39339</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>71489</v>
+        <v>71169</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>71424</v>
+        <v>72501</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>141085</v>
+        <v>141089</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>51158</v>
+        <v>49794</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>97891</v>
+        <v>100518</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>69425</v>
+        <v>69291</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>103985</v>
+        <v>103646</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>108462</v>
+        <v>110301</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>189412</v>
+        <v>191036</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>188157</v>
+        <v>185479</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>181658</v>
+        <v>189094</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>313892</v>
+        <v>312984</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>286633</v>
+        <v>285999</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>521130</v>
+        <v>518225</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>484458</v>
+        <v>487366</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>243324</v>
+        <v>244948</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>247312</v>
+        <v>250735</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>390093</v>
+        <v>389764</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>349657</v>
+        <v>350129</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>610120</v>
+        <v>612305</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>579619</v>
+        <v>578128</v>
       </c>
     </row>
     <row r="24">
